--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC6_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3405103737553893</v>
+        <v>0.3143198975649131</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3405103737553893, 'ngram_match_score': 0.13877634627935934, 'weighted_ngram_match_score': 0.1823522155215723, 'syntax_match_score': 0.5266272189349113, 'dataflow_match_score': 0.5142857142857142}</t>
+          <t>{'codebleu': 0.3143198975649131, 'ngram_match_score': 0.13877634627935934, 'weighted_ngram_match_score': 0.1823522155215723, 'syntax_match_score': 0.5266272189349113, 'dataflow_match_score': 0.4095238095238095}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC6_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC6_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3143198975649131</v>
+        <v>0.3095579928030083</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3143198975649131, 'ngram_match_score': 0.13877634627935934, 'weighted_ngram_match_score': 0.1823522155215723, 'syntax_match_score': 0.5266272189349113, 'dataflow_match_score': 0.4095238095238095}</t>
+          <t>{'codebleu': 0.30955799280300833, 'ngram_match_score': 0.13877634627935934, 'weighted_ngram_match_score': 0.1823522155215723, 'syntax_match_score': 0.5266272189349113, 'dataflow_match_score': 0.3904761904761905}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
